--- a/Centaline_sale_lease.xlsx
+++ b/Centaline_sale_lease.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -586,6 +586,17 @@
         <v>13925</v>
       </c>
     </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45120</v>
+      </c>
+      <c r="B14" t="n">
+        <v>39732</v>
+      </c>
+      <c r="C14" t="n">
+        <v>13799</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Centaline_sale_lease.xlsx
+++ b/Centaline_sale_lease.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q290"/>
+  <dimension ref="A1:Q291"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15786,6 +15786,61 @@
         <v>18950</v>
       </c>
     </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>2024-04-16</t>
+        </is>
+      </c>
+      <c r="B291" t="n">
+        <v>41982</v>
+      </c>
+      <c r="C291" t="n">
+        <v>919</v>
+      </c>
+      <c r="D291" t="n">
+        <v>3752</v>
+      </c>
+      <c r="E291" t="n">
+        <v>8832</v>
+      </c>
+      <c r="F291" t="n">
+        <v>14203</v>
+      </c>
+      <c r="G291" t="n">
+        <v>18965</v>
+      </c>
+      <c r="H291" t="n">
+        <v>23107</v>
+      </c>
+      <c r="I291" t="n">
+        <v>26536</v>
+      </c>
+      <c r="J291" t="n">
+        <v>29157</v>
+      </c>
+      <c r="K291" t="n">
+        <v>4877</v>
+      </c>
+      <c r="L291" t="n">
+        <v>1495</v>
+      </c>
+      <c r="M291" t="n">
+        <v>3472</v>
+      </c>
+      <c r="N291" t="n">
+        <v>414</v>
+      </c>
+      <c r="O291" t="n">
+        <v>3897</v>
+      </c>
+      <c r="P291" t="n">
+        <v>10230</v>
+      </c>
+      <c r="Q291" t="n">
+        <v>18970</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -15797,7 +15852,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B290"/>
+  <dimension ref="A1:B291"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18707,6 +18762,16 @@
         <v>10195</v>
       </c>
     </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>2024-04-16</t>
+        </is>
+      </c>
+      <c r="B291" t="n">
+        <v>10124</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Centaline_sale_lease.xlsx
+++ b/Centaline_sale_lease.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q291"/>
+  <dimension ref="A1:Q292"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15841,6 +15841,61 @@
         <v>18970</v>
       </c>
     </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>2024-04-17</t>
+        </is>
+      </c>
+      <c r="B292" t="n">
+        <v>41906</v>
+      </c>
+      <c r="C292" t="n">
+        <v>920</v>
+      </c>
+      <c r="D292" t="n">
+        <v>3741</v>
+      </c>
+      <c r="E292" t="n">
+        <v>8799</v>
+      </c>
+      <c r="F292" t="n">
+        <v>14170</v>
+      </c>
+      <c r="G292" t="n">
+        <v>18926</v>
+      </c>
+      <c r="H292" t="n">
+        <v>23057</v>
+      </c>
+      <c r="I292" t="n">
+        <v>26494</v>
+      </c>
+      <c r="J292" t="n">
+        <v>29110</v>
+      </c>
+      <c r="K292" t="n">
+        <v>4853</v>
+      </c>
+      <c r="L292" t="n">
+        <v>1508</v>
+      </c>
+      <c r="M292" t="n">
+        <v>3465</v>
+      </c>
+      <c r="N292" t="n">
+        <v>415</v>
+      </c>
+      <c r="O292" t="n">
+        <v>3891</v>
+      </c>
+      <c r="P292" t="n">
+        <v>10191</v>
+      </c>
+      <c r="Q292" t="n">
+        <v>18924</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -15852,7 +15907,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B291"/>
+  <dimension ref="A1:B292"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18772,6 +18827,16 @@
         <v>10124</v>
       </c>
     </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>2024-04-17</t>
+        </is>
+      </c>
+      <c r="B292" t="n">
+        <v>10113</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Centaline_sale_lease.xlsx
+++ b/Centaline_sale_lease.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q292"/>
+  <dimension ref="A1:Q293"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15896,6 +15896,61 @@
         <v>18924</v>
       </c>
     </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>2024-04-18</t>
+        </is>
+      </c>
+      <c r="B293" t="n">
+        <v>41923</v>
+      </c>
+      <c r="C293" t="n">
+        <v>918</v>
+      </c>
+      <c r="D293" t="n">
+        <v>3736</v>
+      </c>
+      <c r="E293" t="n">
+        <v>8807</v>
+      </c>
+      <c r="F293" t="n">
+        <v>14174</v>
+      </c>
+      <c r="G293" t="n">
+        <v>18940</v>
+      </c>
+      <c r="H293" t="n">
+        <v>23067</v>
+      </c>
+      <c r="I293" t="n">
+        <v>26506</v>
+      </c>
+      <c r="J293" t="n">
+        <v>29131</v>
+      </c>
+      <c r="K293" t="n">
+        <v>4855</v>
+      </c>
+      <c r="L293" t="n">
+        <v>1508</v>
+      </c>
+      <c r="M293" t="n">
+        <v>3459</v>
+      </c>
+      <c r="N293" t="n">
+        <v>418</v>
+      </c>
+      <c r="O293" t="n">
+        <v>3899</v>
+      </c>
+      <c r="P293" t="n">
+        <v>10197</v>
+      </c>
+      <c r="Q293" t="n">
+        <v>18926</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -15907,7 +15962,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B292"/>
+  <dimension ref="A1:B293"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18837,6 +18892,16 @@
         <v>10113</v>
       </c>
     </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>2024-04-18</t>
+        </is>
+      </c>
+      <c r="B293" t="n">
+        <v>10108</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Centaline_sale_lease.xlsx
+++ b/Centaline_sale_lease.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q293"/>
+  <dimension ref="A1:Q294"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15951,6 +15951,61 @@
         <v>18926</v>
       </c>
     </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>2024-04-19</t>
+        </is>
+      </c>
+      <c r="B294" t="n">
+        <v>41943</v>
+      </c>
+      <c r="C294" t="n">
+        <v>918</v>
+      </c>
+      <c r="D294" t="n">
+        <v>3752</v>
+      </c>
+      <c r="E294" t="n">
+        <v>8823</v>
+      </c>
+      <c r="F294" t="n">
+        <v>14197</v>
+      </c>
+      <c r="G294" t="n">
+        <v>18966</v>
+      </c>
+      <c r="H294" t="n">
+        <v>23091</v>
+      </c>
+      <c r="I294" t="n">
+        <v>26521</v>
+      </c>
+      <c r="J294" t="n">
+        <v>29150</v>
+      </c>
+      <c r="K294" t="n">
+        <v>4866</v>
+      </c>
+      <c r="L294" t="n">
+        <v>1509</v>
+      </c>
+      <c r="M294" t="n">
+        <v>3457</v>
+      </c>
+      <c r="N294" t="n">
+        <v>419</v>
+      </c>
+      <c r="O294" t="n">
+        <v>3904</v>
+      </c>
+      <c r="P294" t="n">
+        <v>10215</v>
+      </c>
+      <c r="Q294" t="n">
+        <v>18936</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -15962,7 +16017,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B293"/>
+  <dimension ref="A1:B294"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18902,6 +18957,16 @@
         <v>10108</v>
       </c>
     </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>2024-04-19</t>
+        </is>
+      </c>
+      <c r="B294" t="n">
+        <v>10147</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Centaline_sale_lease.xlsx
+++ b/Centaline_sale_lease.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q294"/>
+  <dimension ref="A1:Q295"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16006,6 +16006,61 @@
         <v>18936</v>
       </c>
     </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>2024-04-20</t>
+        </is>
+      </c>
+      <c r="B295" t="n">
+        <v>41953</v>
+      </c>
+      <c r="C295" t="n">
+        <v>919</v>
+      </c>
+      <c r="D295" t="n">
+        <v>3751</v>
+      </c>
+      <c r="E295" t="n">
+        <v>8826</v>
+      </c>
+      <c r="F295" t="n">
+        <v>14186</v>
+      </c>
+      <c r="G295" t="n">
+        <v>18957</v>
+      </c>
+      <c r="H295" t="n">
+        <v>23091</v>
+      </c>
+      <c r="I295" t="n">
+        <v>26522</v>
+      </c>
+      <c r="J295" t="n">
+        <v>29141</v>
+      </c>
+      <c r="K295" t="n">
+        <v>4874</v>
+      </c>
+      <c r="L295" t="n">
+        <v>1516</v>
+      </c>
+      <c r="M295" t="n">
+        <v>3461</v>
+      </c>
+      <c r="N295" t="n">
+        <v>417</v>
+      </c>
+      <c r="O295" t="n">
+        <v>3910</v>
+      </c>
+      <c r="P295" t="n">
+        <v>10215</v>
+      </c>
+      <c r="Q295" t="n">
+        <v>18932</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -16017,7 +16072,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B294"/>
+  <dimension ref="A1:B295"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18967,6 +19022,16 @@
         <v>10147</v>
       </c>
     </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>2024-04-20</t>
+        </is>
+      </c>
+      <c r="B295" t="n">
+        <v>10133</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Centaline_sale_lease.xlsx
+++ b/Centaline_sale_lease.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q295"/>
+  <dimension ref="A1:Q296"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16061,6 +16061,61 @@
         <v>18932</v>
       </c>
     </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>2024-04-21</t>
+        </is>
+      </c>
+      <c r="B296" t="n">
+        <v>41905</v>
+      </c>
+      <c r="C296" t="n">
+        <v>924</v>
+      </c>
+      <c r="D296" t="n">
+        <v>3746</v>
+      </c>
+      <c r="E296" t="n">
+        <v>8832</v>
+      </c>
+      <c r="F296" t="n">
+        <v>14182</v>
+      </c>
+      <c r="G296" t="n">
+        <v>18948</v>
+      </c>
+      <c r="H296" t="n">
+        <v>23077</v>
+      </c>
+      <c r="I296" t="n">
+        <v>26513</v>
+      </c>
+      <c r="J296" t="n">
+        <v>29112</v>
+      </c>
+      <c r="K296" t="n">
+        <v>4866</v>
+      </c>
+      <c r="L296" t="n">
+        <v>1515</v>
+      </c>
+      <c r="M296" t="n">
+        <v>3457</v>
+      </c>
+      <c r="N296" t="n">
+        <v>417</v>
+      </c>
+      <c r="O296" t="n">
+        <v>3908</v>
+      </c>
+      <c r="P296" t="n">
+        <v>10199</v>
+      </c>
+      <c r="Q296" t="n">
+        <v>18907</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -16072,7 +16127,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B295"/>
+  <dimension ref="A1:B296"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19032,6 +19087,16 @@
         <v>10133</v>
       </c>
     </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>2024-04-21</t>
+        </is>
+      </c>
+      <c r="B296" t="n">
+        <v>10066</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Centaline_sale_lease.xlsx
+++ b/Centaline_sale_lease.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q296"/>
+  <dimension ref="A1:Q297"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16116,6 +16116,61 @@
         <v>18907</v>
       </c>
     </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>2024-04-22</t>
+        </is>
+      </c>
+      <c r="B297" t="n">
+        <v>41911</v>
+      </c>
+      <c r="C297" t="n">
+        <v>927</v>
+      </c>
+      <c r="D297" t="n">
+        <v>3747</v>
+      </c>
+      <c r="E297" t="n">
+        <v>8843</v>
+      </c>
+      <c r="F297" t="n">
+        <v>14194</v>
+      </c>
+      <c r="G297" t="n">
+        <v>18954</v>
+      </c>
+      <c r="H297" t="n">
+        <v>23075</v>
+      </c>
+      <c r="I297" t="n">
+        <v>26504</v>
+      </c>
+      <c r="J297" t="n">
+        <v>29121</v>
+      </c>
+      <c r="K297" t="n">
+        <v>4849</v>
+      </c>
+      <c r="L297" t="n">
+        <v>1517</v>
+      </c>
+      <c r="M297" t="n">
+        <v>3465</v>
+      </c>
+      <c r="N297" t="n">
+        <v>417</v>
+      </c>
+      <c r="O297" t="n">
+        <v>3904</v>
+      </c>
+      <c r="P297" t="n">
+        <v>10196</v>
+      </c>
+      <c r="Q297" t="n">
+        <v>18911</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -16127,7 +16182,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B296"/>
+  <dimension ref="A1:B297"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19097,6 +19152,16 @@
         <v>10066</v>
       </c>
     </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>2024-04-22</t>
+        </is>
+      </c>
+      <c r="B297" t="n">
+        <v>10075</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Centaline_sale_lease.xlsx
+++ b/Centaline_sale_lease.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q297"/>
+  <dimension ref="A1:Q298"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16171,6 +16171,61 @@
         <v>18911</v>
       </c>
     </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>2024-04-23</t>
+        </is>
+      </c>
+      <c r="B298" t="n">
+        <v>41879</v>
+      </c>
+      <c r="C298" t="n">
+        <v>932</v>
+      </c>
+      <c r="D298" t="n">
+        <v>3742</v>
+      </c>
+      <c r="E298" t="n">
+        <v>8832</v>
+      </c>
+      <c r="F298" t="n">
+        <v>14170</v>
+      </c>
+      <c r="G298" t="n">
+        <v>18913</v>
+      </c>
+      <c r="H298" t="n">
+        <v>23047</v>
+      </c>
+      <c r="I298" t="n">
+        <v>26475</v>
+      </c>
+      <c r="J298" t="n">
+        <v>29087</v>
+      </c>
+      <c r="K298" t="n">
+        <v>4845</v>
+      </c>
+      <c r="L298" t="n">
+        <v>1519</v>
+      </c>
+      <c r="M298" t="n">
+        <v>3468</v>
+      </c>
+      <c r="N298" t="n">
+        <v>418</v>
+      </c>
+      <c r="O298" t="n">
+        <v>3902</v>
+      </c>
+      <c r="P298" t="n">
+        <v>10181</v>
+      </c>
+      <c r="Q298" t="n">
+        <v>18881</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -16182,7 +16237,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B297"/>
+  <dimension ref="A1:B298"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19162,6 +19217,16 @@
         <v>10075</v>
       </c>
     </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>2024-04-23</t>
+        </is>
+      </c>
+      <c r="B298" t="n">
+        <v>10036</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Centaline_sale_lease.xlsx
+++ b/Centaline_sale_lease.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q298"/>
+  <dimension ref="A1:Q299"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16226,6 +16226,61 @@
         <v>18881</v>
       </c>
     </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>2024-04-24</t>
+        </is>
+      </c>
+      <c r="B299" t="n">
+        <v>41860</v>
+      </c>
+      <c r="C299" t="n">
+        <v>931</v>
+      </c>
+      <c r="D299" t="n">
+        <v>3730</v>
+      </c>
+      <c r="E299" t="n">
+        <v>8820</v>
+      </c>
+      <c r="F299" t="n">
+        <v>14154</v>
+      </c>
+      <c r="G299" t="n">
+        <v>18895</v>
+      </c>
+      <c r="H299" t="n">
+        <v>23024</v>
+      </c>
+      <c r="I299" t="n">
+        <v>26458</v>
+      </c>
+      <c r="J299" t="n">
+        <v>29065</v>
+      </c>
+      <c r="K299" t="n">
+        <v>4849</v>
+      </c>
+      <c r="L299" t="n">
+        <v>1516</v>
+      </c>
+      <c r="M299" t="n">
+        <v>3467</v>
+      </c>
+      <c r="N299" t="n">
+        <v>418</v>
+      </c>
+      <c r="O299" t="n">
+        <v>3899</v>
+      </c>
+      <c r="P299" t="n">
+        <v>10173</v>
+      </c>
+      <c r="Q299" t="n">
+        <v>18862</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -16237,7 +16292,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B298"/>
+  <dimension ref="A1:B299"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19227,6 +19282,16 @@
         <v>10036</v>
       </c>
     </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>2024-04-24</t>
+        </is>
+      </c>
+      <c r="B299" t="n">
+        <v>10015</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Centaline_sale_lease.xlsx
+++ b/Centaline_sale_lease.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q299"/>
+  <dimension ref="A1:Q300"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16281,6 +16281,61 @@
         <v>18862</v>
       </c>
     </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>2024-04-25</t>
+        </is>
+      </c>
+      <c r="B300" t="n">
+        <v>41876</v>
+      </c>
+      <c r="C300" t="n">
+        <v>933</v>
+      </c>
+      <c r="D300" t="n">
+        <v>3730</v>
+      </c>
+      <c r="E300" t="n">
+        <v>8830</v>
+      </c>
+      <c r="F300" t="n">
+        <v>14159</v>
+      </c>
+      <c r="G300" t="n">
+        <v>18905</v>
+      </c>
+      <c r="H300" t="n">
+        <v>23033</v>
+      </c>
+      <c r="I300" t="n">
+        <v>26473</v>
+      </c>
+      <c r="J300" t="n">
+        <v>29074</v>
+      </c>
+      <c r="K300" t="n">
+        <v>4858</v>
+      </c>
+      <c r="L300" t="n">
+        <v>1517</v>
+      </c>
+      <c r="M300" t="n">
+        <v>3466</v>
+      </c>
+      <c r="N300" t="n">
+        <v>419</v>
+      </c>
+      <c r="O300" t="n">
+        <v>3905</v>
+      </c>
+      <c r="P300" t="n">
+        <v>10174</v>
+      </c>
+      <c r="Q300" t="n">
+        <v>18856</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -16292,7 +16347,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B299"/>
+  <dimension ref="A1:B300"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19292,6 +19347,16 @@
         <v>10015</v>
       </c>
     </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>2024-04-25</t>
+        </is>
+      </c>
+      <c r="B300" t="n">
+        <v>10020</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Centaline_sale_lease.xlsx
+++ b/Centaline_sale_lease.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q300"/>
+  <dimension ref="A1:Q301"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16336,6 +16336,61 @@
         <v>18856</v>
       </c>
     </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>2024-04-26</t>
+        </is>
+      </c>
+      <c r="B301" t="n">
+        <v>41847</v>
+      </c>
+      <c r="C301" t="n">
+        <v>930</v>
+      </c>
+      <c r="D301" t="n">
+        <v>3730</v>
+      </c>
+      <c r="E301" t="n">
+        <v>8828</v>
+      </c>
+      <c r="F301" t="n">
+        <v>14162</v>
+      </c>
+      <c r="G301" t="n">
+        <v>18898</v>
+      </c>
+      <c r="H301" t="n">
+        <v>23024</v>
+      </c>
+      <c r="I301" t="n">
+        <v>26467</v>
+      </c>
+      <c r="J301" t="n">
+        <v>29069</v>
+      </c>
+      <c r="K301" t="n">
+        <v>4851</v>
+      </c>
+      <c r="L301" t="n">
+        <v>1521</v>
+      </c>
+      <c r="M301" t="n">
+        <v>3466</v>
+      </c>
+      <c r="N301" t="n">
+        <v>418</v>
+      </c>
+      <c r="O301" t="n">
+        <v>3895</v>
+      </c>
+      <c r="P301" t="n">
+        <v>10165</v>
+      </c>
+      <c r="Q301" t="n">
+        <v>18843</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -16347,7 +16402,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B300"/>
+  <dimension ref="A1:B301"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19357,6 +19412,16 @@
         <v>10020</v>
       </c>
     </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>2024-04-26</t>
+        </is>
+      </c>
+      <c r="B301" t="n">
+        <v>10019</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Centaline_sale_lease.xlsx
+++ b/Centaline_sale_lease.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q301"/>
+  <dimension ref="A1:Q302"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16391,6 +16391,61 @@
         <v>18843</v>
       </c>
     </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>2024-04-27</t>
+        </is>
+      </c>
+      <c r="B302" t="n">
+        <v>41819</v>
+      </c>
+      <c r="C302" t="n">
+        <v>928</v>
+      </c>
+      <c r="D302" t="n">
+        <v>3736</v>
+      </c>
+      <c r="E302" t="n">
+        <v>8822</v>
+      </c>
+      <c r="F302" t="n">
+        <v>14164</v>
+      </c>
+      <c r="G302" t="n">
+        <v>18882</v>
+      </c>
+      <c r="H302" t="n">
+        <v>22994</v>
+      </c>
+      <c r="I302" t="n">
+        <v>26447</v>
+      </c>
+      <c r="J302" t="n">
+        <v>29036</v>
+      </c>
+      <c r="K302" t="n">
+        <v>4853</v>
+      </c>
+      <c r="L302" t="n">
+        <v>1515</v>
+      </c>
+      <c r="M302" t="n">
+        <v>3476</v>
+      </c>
+      <c r="N302" t="n">
+        <v>416</v>
+      </c>
+      <c r="O302" t="n">
+        <v>3891</v>
+      </c>
+      <c r="P302" t="n">
+        <v>10155</v>
+      </c>
+      <c r="Q302" t="n">
+        <v>18823</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -16402,7 +16457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B301"/>
+  <dimension ref="A1:B302"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19422,6 +19477,16 @@
         <v>10019</v>
       </c>
     </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>2024-04-27</t>
+        </is>
+      </c>
+      <c r="B302" t="n">
+        <v>9998</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Centaline_sale_lease.xlsx
+++ b/Centaline_sale_lease.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q302"/>
+  <dimension ref="A1:Q303"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16446,6 +16446,61 @@
         <v>18823</v>
       </c>
     </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>2024-04-28</t>
+        </is>
+      </c>
+      <c r="B303" t="n">
+        <v>41856</v>
+      </c>
+      <c r="C303" t="n">
+        <v>922</v>
+      </c>
+      <c r="D303" t="n">
+        <v>3743</v>
+      </c>
+      <c r="E303" t="n">
+        <v>8842</v>
+      </c>
+      <c r="F303" t="n">
+        <v>14198</v>
+      </c>
+      <c r="G303" t="n">
+        <v>18904</v>
+      </c>
+      <c r="H303" t="n">
+        <v>23017</v>
+      </c>
+      <c r="I303" t="n">
+        <v>26476</v>
+      </c>
+      <c r="J303" t="n">
+        <v>29067</v>
+      </c>
+      <c r="K303" t="n">
+        <v>4864</v>
+      </c>
+      <c r="L303" t="n">
+        <v>1516</v>
+      </c>
+      <c r="M303" t="n">
+        <v>3474</v>
+      </c>
+      <c r="N303" t="n">
+        <v>415</v>
+      </c>
+      <c r="O303" t="n">
+        <v>3888</v>
+      </c>
+      <c r="P303" t="n">
+        <v>10158</v>
+      </c>
+      <c r="Q303" t="n">
+        <v>18847</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -16457,7 +16512,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B302"/>
+  <dimension ref="A1:B303"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19487,6 +19542,16 @@
         <v>9998</v>
       </c>
     </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>2024-04-28</t>
+        </is>
+      </c>
+      <c r="B303" t="n">
+        <v>10009</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Centaline_sale_lease.xlsx
+++ b/Centaline_sale_lease.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q303"/>
+  <dimension ref="A1:Q304"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16501,6 +16501,61 @@
         <v>18847</v>
       </c>
     </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>2024-04-29</t>
+        </is>
+      </c>
+      <c r="B304" t="n">
+        <v>41896</v>
+      </c>
+      <c r="C304" t="n">
+        <v>926</v>
+      </c>
+      <c r="D304" t="n">
+        <v>3755</v>
+      </c>
+      <c r="E304" t="n">
+        <v>8865</v>
+      </c>
+      <c r="F304" t="n">
+        <v>14213</v>
+      </c>
+      <c r="G304" t="n">
+        <v>18927</v>
+      </c>
+      <c r="H304" t="n">
+        <v>23044</v>
+      </c>
+      <c r="I304" t="n">
+        <v>26507</v>
+      </c>
+      <c r="J304" t="n">
+        <v>29099</v>
+      </c>
+      <c r="K304" t="n">
+        <v>4860</v>
+      </c>
+      <c r="L304" t="n">
+        <v>1527</v>
+      </c>
+      <c r="M304" t="n">
+        <v>3480</v>
+      </c>
+      <c r="N304" t="n">
+        <v>413</v>
+      </c>
+      <c r="O304" t="n">
+        <v>3885</v>
+      </c>
+      <c r="P304" t="n">
+        <v>10161</v>
+      </c>
+      <c r="Q304" t="n">
+        <v>18864</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -16512,7 +16567,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B303"/>
+  <dimension ref="A1:B304"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19552,6 +19607,16 @@
         <v>10009</v>
       </c>
     </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>2024-04-29</t>
+        </is>
+      </c>
+      <c r="B304" t="n">
+        <v>9993</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Centaline_sale_lease.xlsx
+++ b/Centaline_sale_lease.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q304"/>
+  <dimension ref="A1:Q305"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16556,6 +16556,61 @@
         <v>18864</v>
       </c>
     </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>2024-04-30</t>
+        </is>
+      </c>
+      <c r="B305" t="n">
+        <v>41865</v>
+      </c>
+      <c r="C305" t="n">
+        <v>925</v>
+      </c>
+      <c r="D305" t="n">
+        <v>3752</v>
+      </c>
+      <c r="E305" t="n">
+        <v>8852</v>
+      </c>
+      <c r="F305" t="n">
+        <v>14198</v>
+      </c>
+      <c r="G305" t="n">
+        <v>18909</v>
+      </c>
+      <c r="H305" t="n">
+        <v>23030</v>
+      </c>
+      <c r="I305" t="n">
+        <v>26488</v>
+      </c>
+      <c r="J305" t="n">
+        <v>29072</v>
+      </c>
+      <c r="K305" t="n">
+        <v>4854</v>
+      </c>
+      <c r="L305" t="n">
+        <v>1532</v>
+      </c>
+      <c r="M305" t="n">
+        <v>3482</v>
+      </c>
+      <c r="N305" t="n">
+        <v>410</v>
+      </c>
+      <c r="O305" t="n">
+        <v>3878</v>
+      </c>
+      <c r="P305" t="n">
+        <v>10152</v>
+      </c>
+      <c r="Q305" t="n">
+        <v>18844</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -16567,7 +16622,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B304"/>
+  <dimension ref="A1:B305"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19617,6 +19672,16 @@
         <v>9993</v>
       </c>
     </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>2024-04-30</t>
+        </is>
+      </c>
+      <c r="B305" t="n">
+        <v>9954</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Centaline_sale_lease.xlsx
+++ b/Centaline_sale_lease.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q305"/>
+  <dimension ref="A1:Q306"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16611,6 +16611,61 @@
         <v>18844</v>
       </c>
     </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>2024-05-01</t>
+        </is>
+      </c>
+      <c r="B306" t="n">
+        <v>41818</v>
+      </c>
+      <c r="C306" t="n">
+        <v>923</v>
+      </c>
+      <c r="D306" t="n">
+        <v>3753</v>
+      </c>
+      <c r="E306" t="n">
+        <v>8846</v>
+      </c>
+      <c r="F306" t="n">
+        <v>14192</v>
+      </c>
+      <c r="G306" t="n">
+        <v>18901</v>
+      </c>
+      <c r="H306" t="n">
+        <v>23017</v>
+      </c>
+      <c r="I306" t="n">
+        <v>26479</v>
+      </c>
+      <c r="J306" t="n">
+        <v>29052</v>
+      </c>
+      <c r="K306" t="n">
+        <v>4843</v>
+      </c>
+      <c r="L306" t="n">
+        <v>1529</v>
+      </c>
+      <c r="M306" t="n">
+        <v>3471</v>
+      </c>
+      <c r="N306" t="n">
+        <v>410</v>
+      </c>
+      <c r="O306" t="n">
+        <v>3874</v>
+      </c>
+      <c r="P306" t="n">
+        <v>10150</v>
+      </c>
+      <c r="Q306" t="n">
+        <v>18828</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -16622,7 +16677,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B305"/>
+  <dimension ref="A1:B306"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19682,6 +19737,16 @@
         <v>9954</v>
       </c>
     </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>2024-05-01</t>
+        </is>
+      </c>
+      <c r="B306" t="n">
+        <v>9887</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Centaline_sale_lease.xlsx
+++ b/Centaline_sale_lease.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q306"/>
+  <dimension ref="A1:Q307"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16666,6 +16666,61 @@
         <v>18828</v>
       </c>
     </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>2024-05-02</t>
+        </is>
+      </c>
+      <c r="B307" t="n">
+        <v>41769</v>
+      </c>
+      <c r="C307" t="n">
+        <v>917</v>
+      </c>
+      <c r="D307" t="n">
+        <v>3743</v>
+      </c>
+      <c r="E307" t="n">
+        <v>8847</v>
+      </c>
+      <c r="F307" t="n">
+        <v>14187</v>
+      </c>
+      <c r="G307" t="n">
+        <v>18884</v>
+      </c>
+      <c r="H307" t="n">
+        <v>22991</v>
+      </c>
+      <c r="I307" t="n">
+        <v>26461</v>
+      </c>
+      <c r="J307" t="n">
+        <v>29032</v>
+      </c>
+      <c r="K307" t="n">
+        <v>4831</v>
+      </c>
+      <c r="L307" t="n">
+        <v>1518</v>
+      </c>
+      <c r="M307" t="n">
+        <v>3469</v>
+      </c>
+      <c r="N307" t="n">
+        <v>410</v>
+      </c>
+      <c r="O307" t="n">
+        <v>3868</v>
+      </c>
+      <c r="P307" t="n">
+        <v>10140</v>
+      </c>
+      <c r="Q307" t="n">
+        <v>18816</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -16677,7 +16732,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B306"/>
+  <dimension ref="A1:B307"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19747,6 +19802,16 @@
         <v>9887</v>
       </c>
     </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>2024-05-02</t>
+        </is>
+      </c>
+      <c r="B307" t="n">
+        <v>9873</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Centaline_sale_lease.xlsx
+++ b/Centaline_sale_lease.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q307"/>
+  <dimension ref="A1:Q308"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16721,6 +16721,61 @@
         <v>18816</v>
       </c>
     </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>2024-05-03</t>
+        </is>
+      </c>
+      <c r="B308" t="n">
+        <v>41786</v>
+      </c>
+      <c r="C308" t="n">
+        <v>917</v>
+      </c>
+      <c r="D308" t="n">
+        <v>3747</v>
+      </c>
+      <c r="E308" t="n">
+        <v>8859</v>
+      </c>
+      <c r="F308" t="n">
+        <v>14206</v>
+      </c>
+      <c r="G308" t="n">
+        <v>18896</v>
+      </c>
+      <c r="H308" t="n">
+        <v>22998</v>
+      </c>
+      <c r="I308" t="n">
+        <v>26473</v>
+      </c>
+      <c r="J308" t="n">
+        <v>29046</v>
+      </c>
+      <c r="K308" t="n">
+        <v>4817</v>
+      </c>
+      <c r="L308" t="n">
+        <v>1521</v>
+      </c>
+      <c r="M308" t="n">
+        <v>3475</v>
+      </c>
+      <c r="N308" t="n">
+        <v>410</v>
+      </c>
+      <c r="O308" t="n">
+        <v>3866</v>
+      </c>
+      <c r="P308" t="n">
+        <v>10138</v>
+      </c>
+      <c r="Q308" t="n">
+        <v>18816</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -16732,7 +16787,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B307"/>
+  <dimension ref="A1:B308"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19812,6 +19867,16 @@
         <v>9873</v>
       </c>
     </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>2024-05-03</t>
+        </is>
+      </c>
+      <c r="B308" t="n">
+        <v>9911</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Centaline_sale_lease.xlsx
+++ b/Centaline_sale_lease.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q308"/>
+  <dimension ref="A1:Q309"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16776,6 +16776,61 @@
         <v>18816</v>
       </c>
     </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>2024-05-04</t>
+        </is>
+      </c>
+      <c r="B309" t="n">
+        <v>41798</v>
+      </c>
+      <c r="C309" t="n">
+        <v>919</v>
+      </c>
+      <c r="D309" t="n">
+        <v>3748</v>
+      </c>
+      <c r="E309" t="n">
+        <v>8872</v>
+      </c>
+      <c r="F309" t="n">
+        <v>14222</v>
+      </c>
+      <c r="G309" t="n">
+        <v>18912</v>
+      </c>
+      <c r="H309" t="n">
+        <v>23002</v>
+      </c>
+      <c r="I309" t="n">
+        <v>26465</v>
+      </c>
+      <c r="J309" t="n">
+        <v>29052</v>
+      </c>
+      <c r="K309" t="n">
+        <v>4825</v>
+      </c>
+      <c r="L309" t="n">
+        <v>1521</v>
+      </c>
+      <c r="M309" t="n">
+        <v>3474</v>
+      </c>
+      <c r="N309" t="n">
+        <v>411</v>
+      </c>
+      <c r="O309" t="n">
+        <v>3873</v>
+      </c>
+      <c r="P309" t="n">
+        <v>10135</v>
+      </c>
+      <c r="Q309" t="n">
+        <v>18810</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -16787,7 +16842,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B308"/>
+  <dimension ref="A1:B309"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19877,6 +19932,16 @@
         <v>9911</v>
       </c>
     </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>2024-05-04</t>
+        </is>
+      </c>
+      <c r="B309" t="n">
+        <v>9920</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Centaline_sale_lease.xlsx
+++ b/Centaline_sale_lease.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q309"/>
+  <dimension ref="A1:Q310"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16831,6 +16831,61 @@
         <v>18810</v>
       </c>
     </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>2024-05-05</t>
+        </is>
+      </c>
+      <c r="B310" t="n">
+        <v>41772</v>
+      </c>
+      <c r="C310" t="n">
+        <v>922</v>
+      </c>
+      <c r="D310" t="n">
+        <v>3757</v>
+      </c>
+      <c r="E310" t="n">
+        <v>8879</v>
+      </c>
+      <c r="F310" t="n">
+        <v>14221</v>
+      </c>
+      <c r="G310" t="n">
+        <v>18912</v>
+      </c>
+      <c r="H310" t="n">
+        <v>23005</v>
+      </c>
+      <c r="I310" t="n">
+        <v>26472</v>
+      </c>
+      <c r="J310" t="n">
+        <v>29053</v>
+      </c>
+      <c r="K310" t="n">
+        <v>4818</v>
+      </c>
+      <c r="L310" t="n">
+        <v>1510</v>
+      </c>
+      <c r="M310" t="n">
+        <v>3460</v>
+      </c>
+      <c r="N310" t="n">
+        <v>412</v>
+      </c>
+      <c r="O310" t="n">
+        <v>3876</v>
+      </c>
+      <c r="P310" t="n">
+        <v>10138</v>
+      </c>
+      <c r="Q310" t="n">
+        <v>18825</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -16842,7 +16897,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B309"/>
+  <dimension ref="A1:B310"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19942,6 +19997,16 @@
         <v>9920</v>
       </c>
     </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>2024-05-05</t>
+        </is>
+      </c>
+      <c r="B310" t="n">
+        <v>9941</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Centaline_sale_lease.xlsx
+++ b/Centaline_sale_lease.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q310"/>
+  <dimension ref="A1:Q311"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16886,6 +16886,61 @@
         <v>18825</v>
       </c>
     </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>2024-05-06</t>
+        </is>
+      </c>
+      <c r="B311" t="n">
+        <v>41745</v>
+      </c>
+      <c r="C311" t="n">
+        <v>921</v>
+      </c>
+      <c r="D311" t="n">
+        <v>3762</v>
+      </c>
+      <c r="E311" t="n">
+        <v>8892</v>
+      </c>
+      <c r="F311" t="n">
+        <v>14236</v>
+      </c>
+      <c r="G311" t="n">
+        <v>18926</v>
+      </c>
+      <c r="H311" t="n">
+        <v>23018</v>
+      </c>
+      <c r="I311" t="n">
+        <v>26474</v>
+      </c>
+      <c r="J311" t="n">
+        <v>29056</v>
+      </c>
+      <c r="K311" t="n">
+        <v>4795</v>
+      </c>
+      <c r="L311" t="n">
+        <v>1505</v>
+      </c>
+      <c r="M311" t="n">
+        <v>3455</v>
+      </c>
+      <c r="N311" t="n">
+        <v>411</v>
+      </c>
+      <c r="O311" t="n">
+        <v>3880</v>
+      </c>
+      <c r="P311" t="n">
+        <v>10132</v>
+      </c>
+      <c r="Q311" t="n">
+        <v>18825</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -16897,7 +16952,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B310"/>
+  <dimension ref="A1:B311"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20007,6 +20062,16 @@
         <v>9941</v>
       </c>
     </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>2024-05-06</t>
+        </is>
+      </c>
+      <c r="B311" t="n">
+        <v>9928</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Centaline_sale_lease.xlsx
+++ b/Centaline_sale_lease.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q311"/>
+  <dimension ref="A1:Q312"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16941,6 +16941,61 @@
         <v>18825</v>
       </c>
     </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>2024-05-07</t>
+        </is>
+      </c>
+      <c r="B312" t="n">
+        <v>41751</v>
+      </c>
+      <c r="C312" t="n">
+        <v>920</v>
+      </c>
+      <c r="D312" t="n">
+        <v>3763</v>
+      </c>
+      <c r="E312" t="n">
+        <v>8888</v>
+      </c>
+      <c r="F312" t="n">
+        <v>14227</v>
+      </c>
+      <c r="G312" t="n">
+        <v>18930</v>
+      </c>
+      <c r="H312" t="n">
+        <v>23020</v>
+      </c>
+      <c r="I312" t="n">
+        <v>26481</v>
+      </c>
+      <c r="J312" t="n">
+        <v>29061</v>
+      </c>
+      <c r="K312" t="n">
+        <v>4798</v>
+      </c>
+      <c r="L312" t="n">
+        <v>1501</v>
+      </c>
+      <c r="M312" t="n">
+        <v>3465</v>
+      </c>
+      <c r="N312" t="n">
+        <v>410</v>
+      </c>
+      <c r="O312" t="n">
+        <v>3875</v>
+      </c>
+      <c r="P312" t="n">
+        <v>10122</v>
+      </c>
+      <c r="Q312" t="n">
+        <v>18815</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -16952,7 +17007,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B311"/>
+  <dimension ref="A1:B312"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20072,6 +20127,16 @@
         <v>9928</v>
       </c>
     </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>2024-05-07</t>
+        </is>
+      </c>
+      <c r="B312" t="n">
+        <v>9929</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Centaline_sale_lease.xlsx
+++ b/Centaline_sale_lease.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q312"/>
+  <dimension ref="A1:Q313"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16996,6 +16996,61 @@
         <v>18815</v>
       </c>
     </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>2024-05-08</t>
+        </is>
+      </c>
+      <c r="B313" t="n">
+        <v>41757</v>
+      </c>
+      <c r="C313" t="n">
+        <v>919</v>
+      </c>
+      <c r="D313" t="n">
+        <v>3768</v>
+      </c>
+      <c r="E313" t="n">
+        <v>8892</v>
+      </c>
+      <c r="F313" t="n">
+        <v>14240</v>
+      </c>
+      <c r="G313" t="n">
+        <v>18942</v>
+      </c>
+      <c r="H313" t="n">
+        <v>23024</v>
+      </c>
+      <c r="I313" t="n">
+        <v>26485</v>
+      </c>
+      <c r="J313" t="n">
+        <v>29073</v>
+      </c>
+      <c r="K313" t="n">
+        <v>4810</v>
+      </c>
+      <c r="L313" t="n">
+        <v>1505</v>
+      </c>
+      <c r="M313" t="n">
+        <v>3455</v>
+      </c>
+      <c r="N313" t="n">
+        <v>407</v>
+      </c>
+      <c r="O313" t="n">
+        <v>3874</v>
+      </c>
+      <c r="P313" t="n">
+        <v>10114</v>
+      </c>
+      <c r="Q313" t="n">
+        <v>18806</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -17007,7 +17062,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B312"/>
+  <dimension ref="A1:B313"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20137,6 +20192,16 @@
         <v>9929</v>
       </c>
     </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>2024-05-08</t>
+        </is>
+      </c>
+      <c r="B313" t="n">
+        <v>9961</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Centaline_sale_lease.xlsx
+++ b/Centaline_sale_lease.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q313"/>
+  <dimension ref="A1:Q314"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17051,6 +17051,61 @@
         <v>18806</v>
       </c>
     </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>2024-05-09</t>
+        </is>
+      </c>
+      <c r="B314" t="n">
+        <v>41745</v>
+      </c>
+      <c r="C314" t="n">
+        <v>924</v>
+      </c>
+      <c r="D314" t="n">
+        <v>3771</v>
+      </c>
+      <c r="E314" t="n">
+        <v>8906</v>
+      </c>
+      <c r="F314" t="n">
+        <v>14246</v>
+      </c>
+      <c r="G314" t="n">
+        <v>18944</v>
+      </c>
+      <c r="H314" t="n">
+        <v>23023</v>
+      </c>
+      <c r="I314" t="n">
+        <v>26494</v>
+      </c>
+      <c r="J314" t="n">
+        <v>29081</v>
+      </c>
+      <c r="K314" t="n">
+        <v>4807</v>
+      </c>
+      <c r="L314" t="n">
+        <v>1495</v>
+      </c>
+      <c r="M314" t="n">
+        <v>3441</v>
+      </c>
+      <c r="N314" t="n">
+        <v>407</v>
+      </c>
+      <c r="O314" t="n">
+        <v>3879</v>
+      </c>
+      <c r="P314" t="n">
+        <v>10116</v>
+      </c>
+      <c r="Q314" t="n">
+        <v>18814</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -17062,7 +17117,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B313"/>
+  <dimension ref="A1:B314"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20202,6 +20257,16 @@
         <v>9961</v>
       </c>
     </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>2024-05-09</t>
+        </is>
+      </c>
+      <c r="B314" t="n">
+        <v>9977</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Centaline_sale_lease.xlsx
+++ b/Centaline_sale_lease.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q314"/>
+  <dimension ref="A1:Q315"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17106,6 +17106,61 @@
         <v>18814</v>
       </c>
     </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>2024-05-10</t>
+        </is>
+      </c>
+      <c r="B315" t="n">
+        <v>41747</v>
+      </c>
+      <c r="C315" t="n">
+        <v>927</v>
+      </c>
+      <c r="D315" t="n">
+        <v>3778</v>
+      </c>
+      <c r="E315" t="n">
+        <v>8907</v>
+      </c>
+      <c r="F315" t="n">
+        <v>14255</v>
+      </c>
+      <c r="G315" t="n">
+        <v>18951</v>
+      </c>
+      <c r="H315" t="n">
+        <v>23022</v>
+      </c>
+      <c r="I315" t="n">
+        <v>26489</v>
+      </c>
+      <c r="J315" t="n">
+        <v>29080</v>
+      </c>
+      <c r="K315" t="n">
+        <v>4810</v>
+      </c>
+      <c r="L315" t="n">
+        <v>1505</v>
+      </c>
+      <c r="M315" t="n">
+        <v>3437</v>
+      </c>
+      <c r="N315" t="n">
+        <v>409</v>
+      </c>
+      <c r="O315" t="n">
+        <v>3882</v>
+      </c>
+      <c r="P315" t="n">
+        <v>10122</v>
+      </c>
+      <c r="Q315" t="n">
+        <v>18820</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -17117,7 +17172,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B314"/>
+  <dimension ref="A1:B315"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20267,6 +20322,16 @@
         <v>9977</v>
       </c>
     </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>2024-05-10</t>
+        </is>
+      </c>
+      <c r="B315" t="n">
+        <v>10010</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Centaline_sale_lease.xlsx
+++ b/Centaline_sale_lease.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q315"/>
+  <dimension ref="A1:Q316"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17161,6 +17161,61 @@
         <v>18820</v>
       </c>
     </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>2024-05-11</t>
+        </is>
+      </c>
+      <c r="B316" t="n">
+        <v>41696</v>
+      </c>
+      <c r="C316" t="n">
+        <v>931</v>
+      </c>
+      <c r="D316" t="n">
+        <v>3778</v>
+      </c>
+      <c r="E316" t="n">
+        <v>8887</v>
+      </c>
+      <c r="F316" t="n">
+        <v>14219</v>
+      </c>
+      <c r="G316" t="n">
+        <v>18912</v>
+      </c>
+      <c r="H316" t="n">
+        <v>22980</v>
+      </c>
+      <c r="I316" t="n">
+        <v>26440</v>
+      </c>
+      <c r="J316" t="n">
+        <v>29030</v>
+      </c>
+      <c r="K316" t="n">
+        <v>4810</v>
+      </c>
+      <c r="L316" t="n">
+        <v>1503</v>
+      </c>
+      <c r="M316" t="n">
+        <v>3443</v>
+      </c>
+      <c r="N316" t="n">
+        <v>407</v>
+      </c>
+      <c r="O316" t="n">
+        <v>3877</v>
+      </c>
+      <c r="P316" t="n">
+        <v>10105</v>
+      </c>
+      <c r="Q316" t="n">
+        <v>18789</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -17172,7 +17227,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B315"/>
+  <dimension ref="A1:B316"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20332,6 +20387,16 @@
         <v>10010</v>
       </c>
     </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>2024-05-11</t>
+        </is>
+      </c>
+      <c r="B316" t="n">
+        <v>10036</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Centaline_sale_lease.xlsx
+++ b/Centaline_sale_lease.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q316"/>
+  <dimension ref="A1:Q317"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17216,6 +17216,61 @@
         <v>18789</v>
       </c>
     </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>2024-05-12</t>
+        </is>
+      </c>
+      <c r="B317" t="n">
+        <v>41714</v>
+      </c>
+      <c r="C317" t="n">
+        <v>933</v>
+      </c>
+      <c r="D317" t="n">
+        <v>3786</v>
+      </c>
+      <c r="E317" t="n">
+        <v>8886</v>
+      </c>
+      <c r="F317" t="n">
+        <v>14208</v>
+      </c>
+      <c r="G317" t="n">
+        <v>18909</v>
+      </c>
+      <c r="H317" t="n">
+        <v>22986</v>
+      </c>
+      <c r="I317" t="n">
+        <v>26444</v>
+      </c>
+      <c r="J317" t="n">
+        <v>29031</v>
+      </c>
+      <c r="K317" t="n">
+        <v>4808</v>
+      </c>
+      <c r="L317" t="n">
+        <v>1505</v>
+      </c>
+      <c r="M317" t="n">
+        <v>3445</v>
+      </c>
+      <c r="N317" t="n">
+        <v>409</v>
+      </c>
+      <c r="O317" t="n">
+        <v>3876</v>
+      </c>
+      <c r="P317" t="n">
+        <v>10114</v>
+      </c>
+      <c r="Q317" t="n">
+        <v>18799</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -17227,7 +17282,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B316"/>
+  <dimension ref="A1:B317"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20397,6 +20452,16 @@
         <v>10036</v>
       </c>
     </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>2024-05-12</t>
+        </is>
+      </c>
+      <c r="B317" t="n">
+        <v>10036</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Centaline_sale_lease.xlsx
+++ b/Centaline_sale_lease.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q317"/>
+  <dimension ref="A1:Q318"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17271,6 +17271,61 @@
         <v>18799</v>
       </c>
     </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>2024-05-13</t>
+        </is>
+      </c>
+      <c r="B318" t="n">
+        <v>41743</v>
+      </c>
+      <c r="C318" t="n">
+        <v>932</v>
+      </c>
+      <c r="D318" t="n">
+        <v>3780</v>
+      </c>
+      <c r="E318" t="n">
+        <v>8879</v>
+      </c>
+      <c r="F318" t="n">
+        <v>14205</v>
+      </c>
+      <c r="G318" t="n">
+        <v>18915</v>
+      </c>
+      <c r="H318" t="n">
+        <v>22996</v>
+      </c>
+      <c r="I318" t="n">
+        <v>26458</v>
+      </c>
+      <c r="J318" t="n">
+        <v>29049</v>
+      </c>
+      <c r="K318" t="n">
+        <v>4819</v>
+      </c>
+      <c r="L318" t="n">
+        <v>1506</v>
+      </c>
+      <c r="M318" t="n">
+        <v>3448</v>
+      </c>
+      <c r="N318" t="n">
+        <v>406</v>
+      </c>
+      <c r="O318" t="n">
+        <v>3884</v>
+      </c>
+      <c r="P318" t="n">
+        <v>10113</v>
+      </c>
+      <c r="Q318" t="n">
+        <v>18814</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -17282,7 +17337,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B317"/>
+  <dimension ref="A1:B318"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20462,6 +20517,16 @@
         <v>10036</v>
       </c>
     </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>2024-05-13</t>
+        </is>
+      </c>
+      <c r="B318" t="n">
+        <v>10032</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Centaline_sale_lease.xlsx
+++ b/Centaline_sale_lease.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q318"/>
+  <dimension ref="A1:Q319"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17326,6 +17326,61 @@
         <v>18814</v>
       </c>
     </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>2024-05-14</t>
+        </is>
+      </c>
+      <c r="B319" t="n">
+        <v>41767</v>
+      </c>
+      <c r="C319" t="n">
+        <v>932</v>
+      </c>
+      <c r="D319" t="n">
+        <v>3784</v>
+      </c>
+      <c r="E319" t="n">
+        <v>8891</v>
+      </c>
+      <c r="F319" t="n">
+        <v>14211</v>
+      </c>
+      <c r="G319" t="n">
+        <v>18922</v>
+      </c>
+      <c r="H319" t="n">
+        <v>23016</v>
+      </c>
+      <c r="I319" t="n">
+        <v>26479</v>
+      </c>
+      <c r="J319" t="n">
+        <v>29073</v>
+      </c>
+      <c r="K319" t="n">
+        <v>4813</v>
+      </c>
+      <c r="L319" t="n">
+        <v>1513</v>
+      </c>
+      <c r="M319" t="n">
+        <v>3449</v>
+      </c>
+      <c r="N319" t="n">
+        <v>408</v>
+      </c>
+      <c r="O319" t="n">
+        <v>3886</v>
+      </c>
+      <c r="P319" t="n">
+        <v>10121</v>
+      </c>
+      <c r="Q319" t="n">
+        <v>18824</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -17337,7 +17392,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B318"/>
+  <dimension ref="A1:B319"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20527,6 +20582,16 @@
         <v>10032</v>
       </c>
     </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>2024-05-14</t>
+        </is>
+      </c>
+      <c r="B319" t="n">
+        <v>10038</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Centaline_sale_lease.xlsx
+++ b/Centaline_sale_lease.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q319"/>
+  <dimension ref="A1:Q320"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17381,6 +17381,61 @@
         <v>18824</v>
       </c>
     </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>2024-05-15</t>
+        </is>
+      </c>
+      <c r="B320" t="n">
+        <v>41783</v>
+      </c>
+      <c r="C320" t="n">
+        <v>928</v>
+      </c>
+      <c r="D320" t="n">
+        <v>3784</v>
+      </c>
+      <c r="E320" t="n">
+        <v>8905</v>
+      </c>
+      <c r="F320" t="n">
+        <v>14218</v>
+      </c>
+      <c r="G320" t="n">
+        <v>18917</v>
+      </c>
+      <c r="H320" t="n">
+        <v>23015</v>
+      </c>
+      <c r="I320" t="n">
+        <v>26482</v>
+      </c>
+      <c r="J320" t="n">
+        <v>29082</v>
+      </c>
+      <c r="K320" t="n">
+        <v>4818</v>
+      </c>
+      <c r="L320" t="n">
+        <v>1505</v>
+      </c>
+      <c r="M320" t="n">
+        <v>3457</v>
+      </c>
+      <c r="N320" t="n">
+        <v>407</v>
+      </c>
+      <c r="O320" t="n">
+        <v>3887</v>
+      </c>
+      <c r="P320" t="n">
+        <v>10129</v>
+      </c>
+      <c r="Q320" t="n">
+        <v>18833</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -17392,7 +17447,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B319"/>
+  <dimension ref="A1:B320"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20592,6 +20647,16 @@
         <v>10038</v>
       </c>
     </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>2024-05-15</t>
+        </is>
+      </c>
+      <c r="B320" t="n">
+        <v>10018</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Centaline_sale_lease.xlsx
+++ b/Centaline_sale_lease.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q320"/>
+  <dimension ref="A1:Q321"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17436,6 +17436,61 @@
         <v>18833</v>
       </c>
     </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>2024-05-16</t>
+        </is>
+      </c>
+      <c r="B321" t="n">
+        <v>41799</v>
+      </c>
+      <c r="C321" t="n">
+        <v>931</v>
+      </c>
+      <c r="D321" t="n">
+        <v>3791</v>
+      </c>
+      <c r="E321" t="n">
+        <v>8924</v>
+      </c>
+      <c r="F321" t="n">
+        <v>14243</v>
+      </c>
+      <c r="G321" t="n">
+        <v>18940</v>
+      </c>
+      <c r="H321" t="n">
+        <v>23032</v>
+      </c>
+      <c r="I321" t="n">
+        <v>26492</v>
+      </c>
+      <c r="J321" t="n">
+        <v>29095</v>
+      </c>
+      <c r="K321" t="n">
+        <v>4830</v>
+      </c>
+      <c r="L321" t="n">
+        <v>1508</v>
+      </c>
+      <c r="M321" t="n">
+        <v>3457</v>
+      </c>
+      <c r="N321" t="n">
+        <v>409</v>
+      </c>
+      <c r="O321" t="n">
+        <v>3898</v>
+      </c>
+      <c r="P321" t="n">
+        <v>10145</v>
+      </c>
+      <c r="Q321" t="n">
+        <v>18846</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -17447,7 +17502,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B320"/>
+  <dimension ref="A1:B321"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20657,6 +20712,16 @@
         <v>10018</v>
       </c>
     </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>2024-05-16</t>
+        </is>
+      </c>
+      <c r="B321" t="n">
+        <v>10014</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Centaline_sale_lease.xlsx
+++ b/Centaline_sale_lease.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q321"/>
+  <dimension ref="A1:Q322"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17491,6 +17491,61 @@
         <v>18846</v>
       </c>
     </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>2024-05-17</t>
+        </is>
+      </c>
+      <c r="B322" t="n">
+        <v>41776</v>
+      </c>
+      <c r="C322" t="n">
+        <v>936</v>
+      </c>
+      <c r="D322" t="n">
+        <v>3791</v>
+      </c>
+      <c r="E322" t="n">
+        <v>8930</v>
+      </c>
+      <c r="F322" t="n">
+        <v>14223</v>
+      </c>
+      <c r="G322" t="n">
+        <v>18914</v>
+      </c>
+      <c r="H322" t="n">
+        <v>22998</v>
+      </c>
+      <c r="I322" t="n">
+        <v>26472</v>
+      </c>
+      <c r="J322" t="n">
+        <v>29078</v>
+      </c>
+      <c r="K322" t="n">
+        <v>4824</v>
+      </c>
+      <c r="L322" t="n">
+        <v>1510</v>
+      </c>
+      <c r="M322" t="n">
+        <v>3455</v>
+      </c>
+      <c r="N322" t="n">
+        <v>407</v>
+      </c>
+      <c r="O322" t="n">
+        <v>3894</v>
+      </c>
+      <c r="P322" t="n">
+        <v>10140</v>
+      </c>
+      <c r="Q322" t="n">
+        <v>18835</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -17502,7 +17557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B321"/>
+  <dimension ref="A1:B322"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20722,6 +20777,16 @@
         <v>10014</v>
       </c>
     </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>2024-05-17</t>
+        </is>
+      </c>
+      <c r="B322" t="n">
+        <v>10015</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Centaline_sale_lease.xlsx
+++ b/Centaline_sale_lease.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q322"/>
+  <dimension ref="A1:Q323"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17546,6 +17546,61 @@
         <v>18835</v>
       </c>
     </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>2024-05-18</t>
+        </is>
+      </c>
+      <c r="B323" t="n">
+        <v>41810</v>
+      </c>
+      <c r="C323" t="n">
+        <v>938</v>
+      </c>
+      <c r="D323" t="n">
+        <v>3799</v>
+      </c>
+      <c r="E323" t="n">
+        <v>8955</v>
+      </c>
+      <c r="F323" t="n">
+        <v>14242</v>
+      </c>
+      <c r="G323" t="n">
+        <v>18931</v>
+      </c>
+      <c r="H323" t="n">
+        <v>23029</v>
+      </c>
+      <c r="I323" t="n">
+        <v>26492</v>
+      </c>
+      <c r="J323" t="n">
+        <v>29099</v>
+      </c>
+      <c r="K323" t="n">
+        <v>4824</v>
+      </c>
+      <c r="L323" t="n">
+        <v>1518</v>
+      </c>
+      <c r="M323" t="n">
+        <v>3456</v>
+      </c>
+      <c r="N323" t="n">
+        <v>405</v>
+      </c>
+      <c r="O323" t="n">
+        <v>3892</v>
+      </c>
+      <c r="P323" t="n">
+        <v>10149</v>
+      </c>
+      <c r="Q323" t="n">
+        <v>18857</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -17557,7 +17612,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B322"/>
+  <dimension ref="A1:B323"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20787,6 +20842,16 @@
         <v>10015</v>
       </c>
     </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>2024-05-18</t>
+        </is>
+      </c>
+      <c r="B323" t="n">
+        <v>10040</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Centaline_sale_lease.xlsx
+++ b/Centaline_sale_lease.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q323"/>
+  <dimension ref="A1:Q324"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17601,6 +17601,61 @@
         <v>18857</v>
       </c>
     </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>2024-05-19</t>
+        </is>
+      </c>
+      <c r="B324" t="n">
+        <v>41792</v>
+      </c>
+      <c r="C324" t="n">
+        <v>935</v>
+      </c>
+      <c r="D324" t="n">
+        <v>3800</v>
+      </c>
+      <c r="E324" t="n">
+        <v>8949</v>
+      </c>
+      <c r="F324" t="n">
+        <v>14237</v>
+      </c>
+      <c r="G324" t="n">
+        <v>18928</v>
+      </c>
+      <c r="H324" t="n">
+        <v>23028</v>
+      </c>
+      <c r="I324" t="n">
+        <v>26489</v>
+      </c>
+      <c r="J324" t="n">
+        <v>29100</v>
+      </c>
+      <c r="K324" t="n">
+        <v>4817</v>
+      </c>
+      <c r="L324" t="n">
+        <v>1511</v>
+      </c>
+      <c r="M324" t="n">
+        <v>3454</v>
+      </c>
+      <c r="N324" t="n">
+        <v>401</v>
+      </c>
+      <c r="O324" t="n">
+        <v>3886</v>
+      </c>
+      <c r="P324" t="n">
+        <v>10150</v>
+      </c>
+      <c r="Q324" t="n">
+        <v>18847</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -17612,7 +17667,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B323"/>
+  <dimension ref="A1:B324"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20852,6 +20907,16 @@
         <v>10040</v>
       </c>
     </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>2024-05-19</t>
+        </is>
+      </c>
+      <c r="B324" t="n">
+        <v>10068</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Centaline_sale_lease.xlsx
+++ b/Centaline_sale_lease.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q324"/>
+  <dimension ref="A1:Q325"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17656,6 +17656,61 @@
         <v>18847</v>
       </c>
     </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>2024-05-20</t>
+        </is>
+      </c>
+      <c r="B325" t="n">
+        <v>41824</v>
+      </c>
+      <c r="C325" t="n">
+        <v>937</v>
+      </c>
+      <c r="D325" t="n">
+        <v>3797</v>
+      </c>
+      <c r="E325" t="n">
+        <v>8968</v>
+      </c>
+      <c r="F325" t="n">
+        <v>14254</v>
+      </c>
+      <c r="G325" t="n">
+        <v>18943</v>
+      </c>
+      <c r="H325" t="n">
+        <v>23056</v>
+      </c>
+      <c r="I325" t="n">
+        <v>26511</v>
+      </c>
+      <c r="J325" t="n">
+        <v>29122</v>
+      </c>
+      <c r="K325" t="n">
+        <v>4821</v>
+      </c>
+      <c r="L325" t="n">
+        <v>1509</v>
+      </c>
+      <c r="M325" t="n">
+        <v>3462</v>
+      </c>
+      <c r="N325" t="n">
+        <v>402</v>
+      </c>
+      <c r="O325" t="n">
+        <v>3896</v>
+      </c>
+      <c r="P325" t="n">
+        <v>10159</v>
+      </c>
+      <c r="Q325" t="n">
+        <v>18859</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -17667,7 +17722,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B324"/>
+  <dimension ref="A1:B325"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20917,6 +20972,16 @@
         <v>10068</v>
       </c>
     </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>2024-05-20</t>
+        </is>
+      </c>
+      <c r="B325" t="n">
+        <v>10076</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Centaline_sale_lease.xlsx
+++ b/Centaline_sale_lease.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q325"/>
+  <dimension ref="A1:Q326"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17711,6 +17711,61 @@
         <v>18859</v>
       </c>
     </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>2024-05-21</t>
+        </is>
+      </c>
+      <c r="B326" t="n">
+        <v>41883</v>
+      </c>
+      <c r="C326" t="n">
+        <v>938</v>
+      </c>
+      <c r="D326" t="n">
+        <v>3813</v>
+      </c>
+      <c r="E326" t="n">
+        <v>8983</v>
+      </c>
+      <c r="F326" t="n">
+        <v>14283</v>
+      </c>
+      <c r="G326" t="n">
+        <v>18960</v>
+      </c>
+      <c r="H326" t="n">
+        <v>23079</v>
+      </c>
+      <c r="I326" t="n">
+        <v>26541</v>
+      </c>
+      <c r="J326" t="n">
+        <v>29152</v>
+      </c>
+      <c r="K326" t="n">
+        <v>4828</v>
+      </c>
+      <c r="L326" t="n">
+        <v>1512</v>
+      </c>
+      <c r="M326" t="n">
+        <v>3468</v>
+      </c>
+      <c r="N326" t="n">
+        <v>401</v>
+      </c>
+      <c r="O326" t="n">
+        <v>3901</v>
+      </c>
+      <c r="P326" t="n">
+        <v>10163</v>
+      </c>
+      <c r="Q326" t="n">
+        <v>18869</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -17722,7 +17777,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B325"/>
+  <dimension ref="A1:B326"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20982,6 +21037,16 @@
         <v>10076</v>
       </c>
     </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>2024-05-21</t>
+        </is>
+      </c>
+      <c r="B326" t="n">
+        <v>10081</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
